--- a/Result/result_HOMO_USD_Train_60.xlsx
+++ b/Result/result_HOMO_USD_Train_60.xlsx
@@ -172,10 +172,10 @@
         <v>2.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01264291500216712</v>
+        <v>0.012642915002167132</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0092559083903912</v>
+        <v>0.009255908390391204</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -195,10 +195,10 @@
         <v>3.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01282053119753485</v>
+        <v>0.012820531197534884</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009372136481434472</v>
+        <v>0.009372136481434498</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -218,10 +218,10 @@
         <v>4.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.013054668334313596</v>
+        <v>0.013054668334313575</v>
       </c>
       <c r="E4" t="n">
-        <v>0.009571451047797372</v>
+        <v>0.009571451047797353</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -241,10 +241,10 @@
         <v>5.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.012868990606255638</v>
+        <v>0.01286899060625565</v>
       </c>
       <c r="E5" t="n">
-        <v>0.009443024919043464</v>
+        <v>0.009443024919043471</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -264,10 +264,10 @@
         <v>6.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.013200143493227848</v>
+        <v>0.013200143493227854</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00965120565300539</v>
+        <v>0.009651205653005396</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -287,10 +287,10 @@
         <v>7.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.012932638639380385</v>
+        <v>0.01293263863938039</v>
       </c>
       <c r="E7" t="n">
-        <v>0.009484432554734004</v>
+        <v>0.009484432554734006</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -310,10 +310,10 @@
         <v>8.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01298909889351253</v>
+        <v>0.012989098893512536</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0095331244371968</v>
+        <v>0.009533124437196807</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -333,10 +333,10 @@
         <v>9.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01302569141352065</v>
+        <v>0.013025691413520644</v>
       </c>
       <c r="E9" t="n">
-        <v>0.009561895199737349</v>
+        <v>0.009561895199737344</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -356,10 +356,10 @@
         <v>10.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.013190170206863744</v>
+        <v>0.013190170206863748</v>
       </c>
       <c r="E10" t="n">
-        <v>0.009670571655834374</v>
+        <v>0.00967057165583438</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -379,10 +379,10 @@
         <v>11.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.013709674678890343</v>
+        <v>0.013709674678890341</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01001857980118012</v>
+        <v>0.01001857980118011</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -402,10 +402,10 @@
         <v>12.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.013140740039644366</v>
+        <v>0.01314074003964437</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009639947205402443</v>
+        <v>0.00963994720540245</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -425,7 +425,7 @@
         <v>13.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.013351624933695301</v>
+        <v>0.0133516249336953</v>
       </c>
       <c r="E13" t="n">
         <v>0.009839025435979518</v>
@@ -448,10 +448,10 @@
         <v>14.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0130912842595779</v>
+        <v>0.013091284259577913</v>
       </c>
       <c r="E14" t="n">
-        <v>0.009618604623800518</v>
+        <v>0.009618604623800514</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -471,10 +471,10 @@
         <v>15.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.013196498895233074</v>
+        <v>0.013196498895233073</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00965493613160408</v>
+        <v>0.009654936131604081</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -494,7 +494,7 @@
         <v>16.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.013022545979347969</v>
+        <v>0.013022545979347964</v>
       </c>
       <c r="E16" t="n">
         <v>0.009538766693409442</v>
@@ -517,10 +517,10 @@
         <v>17.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.013283469950981352</v>
+        <v>0.013283469950981364</v>
       </c>
       <c r="E17" t="n">
-        <v>0.009793656734989003</v>
+        <v>0.00979365673498901</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -540,10 +540,10 @@
         <v>18.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.013301992253255476</v>
+        <v>0.013301992253255472</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009773856084246423</v>
+        <v>0.009773856084246416</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -563,10 +563,10 @@
         <v>19.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.013900181228018796</v>
+        <v>0.013900181228018813</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01016233665677286</v>
+        <v>0.010162336656772858</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -586,10 +586,10 @@
         <v>20.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.013316250717209209</v>
+        <v>0.013316250717209216</v>
       </c>
       <c r="E20" t="n">
-        <v>0.009766199119168434</v>
+        <v>0.009766199119168442</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
